--- a/model/Biogas_KVIK25.xlsx
+++ b/model/Biogas_KVIK25.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27511"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://aarhusuniversitet-my.sharepoint.com/personal/au3642_uni_au_dk/Documents/Models and tools/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://aarhusuniversitet-my.sharepoint.com/personal/au277187_uni_au_dk/Documents/Documents/GitHub/AU-BCE-EE/Dalby-2025-KVIK/model/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="60" documentId="8_{0B0D16DA-F987-4172-834A-E5A42E502C95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D9BEE916-F3BE-477D-BCEC-CA4E1F4DD3EC}"/>
+  <xr:revisionPtr revIDLastSave="61" documentId="8_{0B0D16DA-F987-4172-834A-E5A42E502C95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B2E21E5F-3627-44EC-BAD3-C29A077F97F3}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{86A3C7CE-5D82-4A55-8627-6C61FEAEB006}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{86A3C7CE-5D82-4A55-8627-6C61FEAEB006}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -270,7 +270,7 @@
     <numFmt numFmtId="166" formatCode="0.0000"/>
     <numFmt numFmtId="167" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -408,7 +408,7 @@
     <xf numFmtId="166" fontId="2" fillId="3" borderId="3" xfId="2" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Beregning" xfId="2" builtinId="22"/>
+    <cellStyle name="Calculation" xfId="2" builtinId="22"/>
     <cellStyle name="Input" xfId="1" builtinId="20"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -433,9 +433,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -473,7 +473,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -579,7 +579,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -721,7 +721,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -746,15 +746,17 @@
   <dimension ref="B1:Y18"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="Z3" sqref="Z3"/>
+      <selection activeCell="P7" sqref="P7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="21" width="12.7109375" customWidth="1"/>
+    <col min="1" max="13" width="12.7109375" customWidth="1"/>
+    <col min="14" max="14" width="46.28515625" bestFit="1" customWidth="1"/>
+    <col min="15" max="21" width="12.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:25">
+    <row r="1" spans="2:25" x14ac:dyDescent="0.25">
       <c r="C1" s="9"/>
       <c r="D1" s="9"/>
       <c r="E1" s="9"/>
@@ -771,7 +773,7 @@
       <c r="P1" s="9"/>
       <c r="Q1" s="9"/>
     </row>
-    <row r="2" spans="2:25" s="1" customFormat="1" ht="76.5">
+    <row r="2" spans="2:25" s="1" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="B2" s="8" t="s">
         <v>0</v>
       </c>
@@ -845,7 +847,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="2:25">
+    <row r="3" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>23</v>
       </c>
@@ -932,7 +934,7 @@
         <v>0.40795243717321639</v>
       </c>
     </row>
-    <row r="4" spans="2:25">
+    <row r="4" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>24</v>
       </c>
@@ -1019,7 +1021,7 @@
         <v>0.50567680776014112</v>
       </c>
     </row>
-    <row r="5" spans="2:25">
+    <row r="5" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>25</v>
       </c>
@@ -1086,7 +1088,7 @@
         <v>0.42</v>
       </c>
       <c r="U5" s="19">
-        <f t="shared" ref="U4:U6" si="7">+P5/16*12</f>
+        <f t="shared" ref="U5:U6" si="7">+P5/16*12</f>
         <v>5.6550000000000002</v>
       </c>
       <c r="V5" s="19">
@@ -1094,7 +1096,7 @@
         <v>4.6268181818181811</v>
       </c>
       <c r="W5" s="19">
-        <f t="shared" ref="W4:W6" si="8">+SUM(U5:V5)/T5</f>
+        <f t="shared" ref="W5:W6" si="8">+SUM(U5:V5)/T5</f>
         <v>24.480519480519479</v>
       </c>
       <c r="X5" s="19">
@@ -1106,7 +1108,7 @@
         <v>0.40800865800865804</v>
       </c>
     </row>
-    <row r="6" spans="2:25">
+    <row r="6" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>26</v>
       </c>
@@ -1193,7 +1195,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="7" spans="2:25">
+    <row r="7" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B7" s="4"/>
       <c r="C7" s="4">
         <f>+SUM(C3:C6)</f>
@@ -1226,7 +1228,7 @@
       <c r="W7" s="4"/>
       <c r="X7" s="4"/>
     </row>
-    <row r="9" spans="2:25" s="6" customFormat="1" ht="30">
+    <row r="9" spans="2:25" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="B9" s="7"/>
       <c r="C9" s="7"/>
       <c r="D9" s="7"/>
@@ -1257,7 +1259,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="10" spans="2:25">
+    <row r="10" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>35</v>
       </c>
@@ -1275,7 +1277,7 @@
       <c r="K10" s="18"/>
       <c r="L10" s="18"/>
     </row>
-    <row r="11" spans="2:25">
+    <row r="11" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>36</v>
       </c>
@@ -1298,13 +1300,13 @@
         <v>3.4272</v>
       </c>
     </row>
-    <row r="12" spans="2:25">
+    <row r="12" spans="2:25" x14ac:dyDescent="0.25">
       <c r="F12" s="2"/>
       <c r="H12" s="5"/>
       <c r="K12" s="18"/>
       <c r="L12" s="18"/>
     </row>
-    <row r="13" spans="2:25">
+    <row r="13" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>38</v>
       </c>
@@ -1331,7 +1333,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="14" spans="2:25">
+    <row r="14" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>41</v>
       </c>
@@ -1359,7 +1361,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="15" spans="2:25">
+    <row r="15" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>44</v>
       </c>
@@ -1386,7 +1388,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="16" spans="2:25">
+    <row r="16" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>46</v>
       </c>
@@ -1406,11 +1408,11 @@
         <v>48</v>
       </c>
     </row>
-    <row r="17" spans="2:14">
+    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
       <c r="K17" s="18"/>
       <c r="L17" s="18"/>
     </row>
-    <row r="18" spans="2:14">
+    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B18" s="12" t="s">
         <v>49</v>
       </c>
